--- a/Code/Results/Cases/Case_7_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.17543077039212</v>
+        <v>21.17543077039211</v>
       </c>
       <c r="C2">
-        <v>12.77118681575715</v>
+        <v>12.77118681575708</v>
       </c>
       <c r="D2">
-        <v>10.64706480709509</v>
+        <v>10.64706480709525</v>
       </c>
       <c r="E2">
-        <v>7.112347063234388</v>
+        <v>7.11234706323432</v>
       </c>
       <c r="F2">
-        <v>64.28746101654839</v>
+        <v>64.28746101654825</v>
       </c>
       <c r="G2">
-        <v>2.103143030938679</v>
+        <v>2.103143030938541</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,10 +451,10 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.182998446684482</v>
+        <v>6.18299844668454</v>
       </c>
       <c r="M2">
-        <v>12.59779204888493</v>
+        <v>12.59779204888495</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74129062264201</v>
+        <v>19.741290622642</v>
       </c>
       <c r="C3">
-        <v>11.8773158311246</v>
+        <v>11.8773158311243</v>
       </c>
       <c r="D3">
-        <v>10.24689398163526</v>
+        <v>10.24689398163532</v>
       </c>
       <c r="E3">
-        <v>7.036317073010368</v>
+        <v>7.036317073010109</v>
       </c>
       <c r="F3">
-        <v>60.72683722052119</v>
+        <v>60.7268372205214</v>
       </c>
       <c r="G3">
-        <v>2.118035873292003</v>
+        <v>2.11803587329186</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.117786409310861</v>
+        <v>6.117786409310804</v>
       </c>
       <c r="M3">
         <v>12.1246681126016</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89354998361978</v>
+        <v>18.89354998361982</v>
       </c>
       <c r="C4">
-        <v>11.30736866594177</v>
+        <v>11.3073686659414</v>
       </c>
       <c r="D4">
-        <v>9.999806198167036</v>
+        <v>9.999806198167047</v>
       </c>
       <c r="E4">
-        <v>6.990095940360584</v>
+        <v>6.990095940360384</v>
       </c>
       <c r="F4">
-        <v>58.49415500948645</v>
+        <v>58.49415500948631</v>
       </c>
       <c r="G4">
-        <v>2.127311641414663</v>
+        <v>2.127311641414416</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,10 +545,10 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.0814615873577</v>
+        <v>6.081461587357744</v>
       </c>
       <c r="M4">
-        <v>11.84055326661547</v>
+        <v>11.84055326661553</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.5439668106685</v>
+        <v>18.54396681066849</v>
       </c>
       <c r="C5">
-        <v>11.06958928103857</v>
+        <v>11.06958928103852</v>
       </c>
       <c r="D5">
-        <v>9.898752194781837</v>
+        <v>9.898752194781821</v>
       </c>
       <c r="E5">
-        <v>6.971322702672557</v>
+        <v>6.971322702672618</v>
       </c>
       <c r="F5">
-        <v>57.57284836022281</v>
+        <v>57.57284836022288</v>
       </c>
       <c r="G5">
-        <v>2.131130410435883</v>
+        <v>2.131130410435616</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,10 +592,10 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.067560555103211</v>
+        <v>6.067560555103253</v>
       </c>
       <c r="M5">
-        <v>11.72644062476652</v>
+        <v>11.72644062476649</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48567655899721</v>
+        <v>18.48567655899722</v>
       </c>
       <c r="C6">
-        <v>11.02976701515813</v>
+        <v>11.02976701515807</v>
       </c>
       <c r="D6">
-        <v>9.881950125332141</v>
+        <v>9.881950125332061</v>
       </c>
       <c r="E6">
-        <v>6.968207724366689</v>
+        <v>6.968207724366879</v>
       </c>
       <c r="F6">
-        <v>57.41918367794268</v>
+        <v>57.41918367794254</v>
       </c>
       <c r="G6">
-        <v>2.131767015450397</v>
+        <v>2.131767015450394</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.065305831583795</v>
+        <v>6.065305831583916</v>
       </c>
       <c r="M6">
-        <v>11.70759509869568</v>
+        <v>11.70759509869573</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88885178517527</v>
+        <v>18.88885178517529</v>
       </c>
       <c r="C7">
-        <v>11.30418450753518</v>
+        <v>11.3041845075353</v>
       </c>
       <c r="D7">
-        <v>9.998444830751852</v>
+        <v>9.998444830751787</v>
       </c>
       <c r="E7">
-        <v>6.989842572485045</v>
+        <v>6.989842572484979</v>
       </c>
       <c r="F7">
-        <v>58.48177595258647</v>
+        <v>58.48177595258623</v>
       </c>
       <c r="G7">
-        <v>2.127362978328613</v>
+        <v>2.127362978328748</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.081270504451759</v>
+        <v>6.081270504451677</v>
       </c>
       <c r="M7">
-        <v>11.83900746165445</v>
+        <v>11.83900746165446</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64839003028664</v>
+        <v>20.64839003028668</v>
       </c>
       <c r="C8">
         <v>12.46722276886321</v>
       </c>
       <c r="D8">
-        <v>10.50935709757983</v>
+        <v>10.50935709757988</v>
       </c>
       <c r="E8">
-        <v>7.086001651861013</v>
+        <v>7.086001651861014</v>
       </c>
       <c r="F8">
-        <v>63.06945222776895</v>
+        <v>63.06945222776906</v>
       </c>
       <c r="G8">
-        <v>2.108254451293137</v>
+        <v>2.108254451293133</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.159721841061792</v>
+        <v>6.159721841061814</v>
       </c>
       <c r="M8">
         <v>12.43336338268386</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33100157202596</v>
+        <v>24.33100157202597</v>
       </c>
       <c r="C9">
-        <v>14.59182973998716</v>
+        <v>14.59182973998706</v>
       </c>
       <c r="D9">
-        <v>11.50212839534422</v>
+        <v>11.50212839534424</v>
       </c>
       <c r="E9">
-        <v>7.281053670464534</v>
+        <v>7.28105367046441</v>
       </c>
       <c r="F9">
-        <v>71.70070128671856</v>
+        <v>71.70070128671885</v>
       </c>
       <c r="G9">
-        <v>2.071528845489216</v>
+        <v>2.071528845489477</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,10 +780,10 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.3446564899148</v>
+        <v>6.344656489914779</v>
       </c>
       <c r="M9">
-        <v>13.7349782554742</v>
+        <v>13.73497825547418</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.89472494917202</v>
+        <v>26.8947249491721</v>
       </c>
       <c r="C10">
         <v>16.0765517017399</v>
       </c>
       <c r="D10">
-        <v>12.23045608959969</v>
+        <v>12.23045608959988</v>
       </c>
       <c r="E10">
-        <v>7.43300778533552</v>
+        <v>7.433007785335476</v>
       </c>
       <c r="F10">
-        <v>77.84352591735761</v>
+        <v>77.84352591735818</v>
       </c>
       <c r="G10">
-        <v>2.044515133572046</v>
+        <v>2.044515133571903</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,10 +827,10 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.502029786262242</v>
+        <v>6.502029786262249</v>
       </c>
       <c r="M10">
-        <v>15.16524727764555</v>
+        <v>15.16524727764558</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.03673195065007</v>
+        <v>28.03673195065008</v>
       </c>
       <c r="C11">
-        <v>16.74075235449782</v>
+        <v>16.74075235449788</v>
       </c>
       <c r="D11">
-        <v>12.5632173113938</v>
+        <v>12.56321731139392</v>
       </c>
       <c r="E11">
-        <v>7.505343389591712</v>
+        <v>7.505343389591807</v>
       </c>
       <c r="F11">
-        <v>80.60612347522881</v>
+        <v>80.60612347522967</v>
       </c>
       <c r="G11">
-        <v>2.032084620826753</v>
+        <v>2.032084620827274</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.578979234252485</v>
+        <v>6.578979234252508</v>
       </c>
       <c r="M11">
-        <v>15.79874573796254</v>
+        <v>15.79874573796257</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.46640236921917</v>
+        <v>28.46640236921915</v>
       </c>
       <c r="C12">
-        <v>16.99120807210172</v>
+        <v>16.99120807210144</v>
       </c>
       <c r="D12">
-        <v>12.68962782911593</v>
+        <v>12.68962782911608</v>
       </c>
       <c r="E12">
-        <v>7.533336706724221</v>
+        <v>7.533336706724357</v>
       </c>
       <c r="F12">
-        <v>81.64905825673105</v>
+        <v>81.64905825673118</v>
       </c>
       <c r="G12">
-        <v>2.027343246601917</v>
+        <v>2.02734324660165</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,10 +921,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.608959119771512</v>
+        <v>6.608959119771566</v>
       </c>
       <c r="M12">
-        <v>16.03657436656383</v>
+        <v>16.03657436656377</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.37397600019062</v>
+        <v>28.37397600019053</v>
       </c>
       <c r="C13">
-        <v>16.93730527284899</v>
+        <v>16.93730527284868</v>
       </c>
       <c r="D13">
-        <v>12.66238153758364</v>
+        <v>12.66238153758361</v>
       </c>
       <c r="E13">
-        <v>7.527278551494978</v>
+        <v>7.52727855149465</v>
       </c>
       <c r="F13">
-        <v>81.42455959863429</v>
+        <v>81.42455959863412</v>
       </c>
       <c r="G13">
         <v>2.028366157226892</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.602463749426386</v>
+        <v>6.602463749426366</v>
       </c>
       <c r="M13">
-        <v>15.98543829784561</v>
+        <v>15.98543829784559</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.07213236820342</v>
+        <v>28.07213236820362</v>
       </c>
       <c r="C14">
-        <v>16.76137525404775</v>
+        <v>16.76137525404768</v>
       </c>
       <c r="D14">
-        <v>12.57360783402452</v>
+        <v>12.57360783402462</v>
       </c>
       <c r="E14">
-        <v>7.507633457470197</v>
+        <v>7.50763345747022</v>
       </c>
       <c r="F14">
-        <v>80.69198114804799</v>
+        <v>80.69198114804836</v>
       </c>
       <c r="G14">
-        <v>2.03169531955086</v>
+        <v>2.031695319550882</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.58142839411921</v>
+        <v>6.581428394119232</v>
       </c>
       <c r="M14">
-        <v>15.81835083457112</v>
+        <v>15.81835083457122</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.88690560105101</v>
+        <v>27.88690560105094</v>
       </c>
       <c r="C15">
-        <v>16.65349281773765</v>
+        <v>16.65349281773761</v>
       </c>
       <c r="D15">
-        <v>12.51929030325674</v>
+        <v>12.51929030325671</v>
       </c>
       <c r="E15">
-        <v>7.49568323844114</v>
+        <v>7.495683238441083</v>
       </c>
       <c r="F15">
-        <v>80.24288665432726</v>
+        <v>80.24288665432732</v>
       </c>
       <c r="G15">
-        <v>2.033729616570697</v>
+        <v>2.033729616570826</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.568655450299239</v>
+        <v>6.568655450299153</v>
       </c>
       <c r="M15">
-        <v>15.7157493751519</v>
+        <v>15.71574937515189</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8196608798094</v>
+        <v>26.81966087980937</v>
       </c>
       <c r="C16">
-        <v>16.0329636146935</v>
+        <v>16.03296361469361</v>
       </c>
       <c r="D16">
-        <v>12.20875370953416</v>
+        <v>12.20875370953407</v>
       </c>
       <c r="E16">
-        <v>7.428356386146875</v>
+        <v>7.428356386146868</v>
       </c>
       <c r="F16">
-        <v>77.66245178866176</v>
+        <v>77.66245178866178</v>
       </c>
       <c r="G16">
-        <v>2.045323521300731</v>
+        <v>2.045323521300736</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.497114489784004</v>
+        <v>6.497114489783982</v>
       </c>
       <c r="M16">
-        <v>15.12353444670597</v>
+        <v>15.12353444670596</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.15918440611389</v>
+        <v>26.1591844061139</v>
       </c>
       <c r="C17">
-        <v>15.64977661156123</v>
+        <v>15.64977661156093</v>
       </c>
       <c r="D17">
-        <v>12.01874009014236</v>
+        <v>12.01874009014253</v>
       </c>
       <c r="E17">
-        <v>7.387966585435348</v>
+        <v>7.387966585435224</v>
       </c>
       <c r="F17">
-        <v>76.07214399883811</v>
+        <v>76.0721439988383</v>
       </c>
       <c r="G17">
-        <v>2.052390650181813</v>
+        <v>2.052390650181654</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.454644861356054</v>
+        <v>6.454644861356041</v>
       </c>
       <c r="M17">
         <v>14.75610363395106</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.77696339803595</v>
+        <v>25.77696339803589</v>
       </c>
       <c r="C18">
-        <v>15.42828426985312</v>
+        <v>15.42828426985293</v>
       </c>
       <c r="D18">
-        <v>11.90957043440488</v>
+        <v>11.90957043440497</v>
       </c>
       <c r="E18">
-        <v>7.365027813635542</v>
+        <v>7.36502781363535</v>
       </c>
       <c r="F18">
-        <v>75.1543427529041</v>
+        <v>75.15434275290414</v>
       </c>
       <c r="G18">
-        <v>2.056443089556855</v>
+        <v>2.056443089556867</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.430717023159857</v>
+        <v>6.430717023159866</v>
       </c>
       <c r="M18">
-        <v>14.54312625978079</v>
+        <v>14.54312625978075</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.64713037561715</v>
+        <v>25.64713037561719</v>
       </c>
       <c r="C19">
-        <v>15.35308796668561</v>
+        <v>15.35308796668587</v>
       </c>
       <c r="D19">
-        <v>11.87262322720972</v>
+        <v>11.87262322720975</v>
       </c>
       <c r="E19">
-        <v>7.357307553968447</v>
+        <v>7.357307553968464</v>
       </c>
       <c r="F19">
-        <v>74.84302357737337</v>
+        <v>74.84302357737351</v>
       </c>
       <c r="G19">
-        <v>2.057813427735766</v>
+        <v>2.057813427735903</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.422699350317085</v>
+        <v>6.422699350317094</v>
       </c>
       <c r="M19">
-        <v>14.47072288219758</v>
+        <v>14.47072288219768</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.22973004500822</v>
+        <v>26.2297300450082</v>
       </c>
       <c r="C20">
-        <v>15.6906770389749</v>
+        <v>15.69067703897499</v>
       </c>
       <c r="D20">
         <v>12.03895359248713</v>
       </c>
       <c r="E20">
-        <v>7.392234968227767</v>
+        <v>7.392234968227839</v>
       </c>
       <c r="F20">
-        <v>76.24174698289532</v>
+        <v>76.24174698289553</v>
       </c>
       <c r="G20">
-        <v>2.051639715914014</v>
+        <v>2.051639715913888</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.459113657908006</v>
+        <v>6.459113657907982</v>
       </c>
       <c r="M20">
-        <v>14.79538442061858</v>
+        <v>14.79538442061856</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.16086028503478</v>
+        <v>28.16086028503491</v>
       </c>
       <c r="C21">
-        <v>16.81307407831644</v>
+        <v>16.81307407831604</v>
       </c>
       <c r="D21">
-        <v>12.59967011625277</v>
+        <v>12.5996701162527</v>
       </c>
       <c r="E21">
-        <v>7.513386114762071</v>
+        <v>7.513386114761938</v>
       </c>
       <c r="F21">
-        <v>80.90723105430837</v>
+        <v>80.90723105430793</v>
       </c>
       <c r="G21">
-        <v>2.030718515931124</v>
+        <v>2.03071851593111</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.587583539101424</v>
+        <v>6.587583539101432</v>
       </c>
       <c r="M21">
-        <v>15.86748090812512</v>
+        <v>15.86748090812518</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.40719365204331</v>
+        <v>29.40719365204315</v>
       </c>
       <c r="C22">
-        <v>17.5407721474134</v>
+        <v>17.54077214741325</v>
       </c>
       <c r="D22">
-        <v>12.9686010804604</v>
+        <v>12.9686010804606</v>
       </c>
       <c r="E22">
-        <v>7.596158730528585</v>
+        <v>7.596158730528457</v>
       </c>
       <c r="F22">
-        <v>83.9386904823954</v>
+        <v>83.93869048239567</v>
       </c>
       <c r="G22">
-        <v>2.016837388151428</v>
+        <v>2.016837388151171</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.676490531112461</v>
+        <v>6.676490531112387</v>
       </c>
       <c r="M22">
-        <v>16.55637425284936</v>
+        <v>16.55637425284932</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.74316926475705</v>
+        <v>28.74316926475728</v>
       </c>
       <c r="C23">
-        <v>17.15270972475747</v>
+        <v>17.15270972475764</v>
       </c>
       <c r="D23">
-        <v>12.77139043212106</v>
+        <v>12.77139043212114</v>
       </c>
       <c r="E23">
-        <v>7.551598291775387</v>
+        <v>7.55159829177542</v>
       </c>
       <c r="F23">
-        <v>82.32179686314349</v>
+        <v>82.32179686314439</v>
       </c>
       <c r="G23">
-        <v>2.024270343150829</v>
+        <v>2.024270343150962</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,10 +1438,10 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.628559672287198</v>
+        <v>6.628559672287147</v>
       </c>
       <c r="M23">
-        <v>16.18962412890124</v>
+        <v>16.18962412890136</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.19784421266339</v>
+        <v>26.19784421266341</v>
       </c>
       <c r="C24">
-        <v>15.67218971135008</v>
+        <v>15.67218971134979</v>
       </c>
       <c r="D24">
-        <v>12.02981485841949</v>
+        <v>12.02981485841948</v>
       </c>
       <c r="E24">
-        <v>7.390304364442724</v>
+        <v>7.390304364442649</v>
       </c>
       <c r="F24">
-        <v>76.16508051091482</v>
+        <v>76.16508051091432</v>
       </c>
       <c r="G24">
-        <v>2.051979245150879</v>
+        <v>2.051979245150883</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.457091798447887</v>
+        <v>6.457091798447882</v>
       </c>
       <c r="M24">
-        <v>14.777631014863</v>
+        <v>14.77763101486302</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.36150407867133</v>
+        <v>23.36150407867125</v>
       </c>
       <c r="C25">
-        <v>14.03201564331981</v>
+        <v>14.03201564331998</v>
       </c>
       <c r="D25">
-        <v>11.23417762673784</v>
+        <v>11.23417762673776</v>
       </c>
       <c r="E25">
-        <v>7.227156268119312</v>
+        <v>7.227156268119233</v>
       </c>
       <c r="F25">
-        <v>69.40333072876112</v>
+        <v>69.40333072876065</v>
       </c>
       <c r="G25">
-        <v>2.081429862177122</v>
+        <v>2.081429862177244</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.291055137312464</v>
+        <v>6.291055137312462</v>
       </c>
       <c r="M25">
-        <v>13.31437285597654</v>
+        <v>13.31437285597655</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.17543077039211</v>
+        <v>21.46985843685692</v>
       </c>
       <c r="C2">
-        <v>12.77118681575708</v>
+        <v>14.95260618754802</v>
       </c>
       <c r="D2">
-        <v>10.64706480709525</v>
+        <v>4.240713082043033</v>
       </c>
       <c r="E2">
-        <v>7.11234706323432</v>
+        <v>8.335502860642139</v>
       </c>
       <c r="F2">
-        <v>64.28746101654825</v>
+        <v>23.8721121196895</v>
       </c>
       <c r="G2">
-        <v>2.103143030938541</v>
+        <v>33.10039244127373</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1.939512075403886</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.82327348553329</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.58667771980128</v>
       </c>
       <c r="L2">
-        <v>6.18299844668454</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.59779204888495</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.96791061511778</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>12.71297885455795</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.741290622642</v>
+        <v>20.03513122151958</v>
       </c>
       <c r="C3">
-        <v>11.8773158311243</v>
+        <v>14.11857120540236</v>
       </c>
       <c r="D3">
-        <v>10.24689398163532</v>
+        <v>4.209880915146906</v>
       </c>
       <c r="E3">
-        <v>7.036317073010109</v>
+        <v>8.164398323709108</v>
       </c>
       <c r="F3">
-        <v>60.7268372205214</v>
+        <v>23.09519304987208</v>
       </c>
       <c r="G3">
-        <v>2.11803587329186</v>
+        <v>31.88740205971892</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.216400818702585</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.71900816711516</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>16.58290527771156</v>
       </c>
       <c r="L3">
-        <v>6.117786409310804</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.1246681126016</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.756920361740415</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>12.05738574302126</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.89354998361982</v>
+        <v>19.10182140421322</v>
       </c>
       <c r="C4">
-        <v>11.3073686659414</v>
+        <v>13.58107734845884</v>
       </c>
       <c r="D4">
-        <v>9.999806198167047</v>
+        <v>4.190392054878251</v>
       </c>
       <c r="E4">
-        <v>6.990095940360384</v>
+        <v>8.05656159264014</v>
       </c>
       <c r="F4">
-        <v>58.49415500948631</v>
+        <v>22.62652404353326</v>
       </c>
       <c r="G4">
-        <v>2.127311641414416</v>
+        <v>31.15304498639707</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.391525676325466</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.6623285330986</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>16.59383722936484</v>
       </c>
       <c r="L4">
-        <v>6.081461587357744</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.84055326661553</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.623774618697212</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>11.637814156916</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.54396681066849</v>
+        <v>18.70824171112416</v>
       </c>
       <c r="C5">
-        <v>11.06958928103852</v>
+        <v>13.35572094521904</v>
       </c>
       <c r="D5">
-        <v>9.898752194781821</v>
+        <v>4.182314567495171</v>
       </c>
       <c r="E5">
-        <v>6.971322702672618</v>
+        <v>8.011890711947725</v>
       </c>
       <c r="F5">
-        <v>57.57284836022288</v>
+        <v>22.43785465136359</v>
       </c>
       <c r="G5">
-        <v>2.131130410435616</v>
+        <v>30.856769600506</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.464209480258857</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.64103005459787</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.60147443099827</v>
       </c>
       <c r="L5">
-        <v>6.067560555103253</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.72644062476649</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.568642407924492</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>11.46269123593971</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.48567655899722</v>
+        <v>18.64208574363875</v>
       </c>
       <c r="C6">
-        <v>11.02976701515807</v>
+        <v>13.31792104405114</v>
       </c>
       <c r="D6">
-        <v>9.881950125332061</v>
+        <v>4.180965254254996</v>
       </c>
       <c r="E6">
-        <v>6.968207724366879</v>
+        <v>8.004428476248755</v>
       </c>
       <c r="F6">
-        <v>57.41918367794254</v>
+        <v>22.40667253865121</v>
       </c>
       <c r="G6">
-        <v>2.131767015450394</v>
+        <v>30.80776417706846</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.476359171824392</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.63760067778951</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.60293044824947</v>
       </c>
       <c r="L6">
-        <v>6.065305831583916</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.70759509869573</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.559435902403482</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>11.43336655803288</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88885178517529</v>
+        <v>19.09656719285235</v>
       </c>
       <c r="C7">
-        <v>11.3041845075353</v>
+        <v>13.57806361723071</v>
       </c>
       <c r="D7">
-        <v>9.998444830751787</v>
+        <v>4.190283661942414</v>
       </c>
       <c r="E7">
-        <v>6.989842572484979</v>
+        <v>8.055962123151378</v>
       </c>
       <c r="F7">
-        <v>58.48177595258623</v>
+        <v>22.62396991364988</v>
       </c>
       <c r="G7">
-        <v>2.127362978328748</v>
+        <v>31.14903675480264</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.39250053232469</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.66203407474346</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>16.59392753839954</v>
       </c>
       <c r="L7">
-        <v>6.081270504451677</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.83900746165446</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.623034583462604</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>11.63546896193849</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.64839003028668</v>
+        <v>20.98598928330772</v>
       </c>
       <c r="C8">
-        <v>12.46722276886321</v>
+        <v>14.67033144396847</v>
       </c>
       <c r="D8">
-        <v>10.50935709757988</v>
+        <v>4.230200659018359</v>
       </c>
       <c r="E8">
-        <v>7.086001651861014</v>
+        <v>8.277065157878024</v>
       </c>
       <c r="F8">
-        <v>63.06945222776906</v>
+        <v>23.60262111607163</v>
       </c>
       <c r="G8">
-        <v>2.108254451293133</v>
+        <v>32.68019966012326</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.033942301058713</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.78577239392878</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>16.58253743032176</v>
       </c>
       <c r="L8">
-        <v>6.159721841061814</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.43336338268386</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.895924618397982</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>12.49054093816698</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.33100157202597</v>
+        <v>24.27910921613829</v>
       </c>
       <c r="C9">
-        <v>14.59182973998706</v>
+        <v>16.60917713227339</v>
       </c>
       <c r="D9">
-        <v>11.50212839534424</v>
+        <v>4.303855434997422</v>
       </c>
       <c r="E9">
-        <v>7.28105367046441</v>
+        <v>8.689965421949996</v>
       </c>
       <c r="F9">
-        <v>71.70070128671885</v>
+        <v>25.57922908900302</v>
       </c>
       <c r="G9">
-        <v>2.071528845489477</v>
+        <v>35.75098705132633</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>1.74671953220873</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>11.08858638812046</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.67200945322967</v>
       </c>
       <c r="L9">
-        <v>6.344656489914779</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.73497825547418</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.401405405012872</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>14.02740757936837</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.8947249491721</v>
+        <v>26.46752763472372</v>
       </c>
       <c r="C10">
-        <v>16.0765517017399</v>
+        <v>17.99371819586088</v>
       </c>
       <c r="D10">
-        <v>12.23045608959988</v>
+        <v>4.378633591506613</v>
       </c>
       <c r="E10">
-        <v>7.433007785335476</v>
+        <v>8.9844234225757</v>
       </c>
       <c r="F10">
-        <v>77.84352591735818</v>
+        <v>26.82455276320866</v>
       </c>
       <c r="G10">
-        <v>2.044515133571903</v>
+        <v>37.62028631825699</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>2.191644027680894</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>11.26355964797897</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>16.63525411789568</v>
       </c>
       <c r="L10">
-        <v>6.502029786262249</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.16524727764558</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.655665276510246</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>14.99366468051165</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.03673195065008</v>
+        <v>27.54165129079734</v>
       </c>
       <c r="C11">
-        <v>16.74075235449788</v>
+        <v>19.3340963676842</v>
       </c>
       <c r="D11">
-        <v>12.56321731139392</v>
+        <v>4.65006670566776</v>
       </c>
       <c r="E11">
-        <v>7.505343389591807</v>
+        <v>9.353876524159062</v>
       </c>
       <c r="F11">
-        <v>80.60612347522967</v>
+        <v>25.40239038322292</v>
       </c>
       <c r="G11">
-        <v>2.032084620827274</v>
+        <v>34.93603978813805</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.058501917353809</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.60278852898784</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>15.09890423486786</v>
       </c>
       <c r="L11">
-        <v>6.578979234252508</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.79874573796257</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.976353630832556</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>14.7855920226687</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.46640236921915</v>
+        <v>28.00807586401104</v>
       </c>
       <c r="C12">
-        <v>16.99120807210144</v>
+        <v>20.20389751262001</v>
       </c>
       <c r="D12">
-        <v>12.68962782911608</v>
+        <v>4.902227192880233</v>
       </c>
       <c r="E12">
-        <v>7.533336706724357</v>
+        <v>9.883337113855722</v>
       </c>
       <c r="F12">
-        <v>81.64905825673118</v>
+        <v>23.90789922505821</v>
       </c>
       <c r="G12">
-        <v>2.02734324660165</v>
+        <v>32.22386491469063</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.282185858671377</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.99880272721329</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.82936636984339</v>
       </c>
       <c r="L12">
-        <v>6.608959119771566</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>16.03657436656377</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.430429573360915</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>14.40109757172127</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.37397600019053</v>
+        <v>28.05045670756203</v>
       </c>
       <c r="C13">
-        <v>16.93730527284868</v>
+        <v>20.78642222449248</v>
       </c>
       <c r="D13">
-        <v>12.66238153758361</v>
+        <v>5.147435252460861</v>
       </c>
       <c r="E13">
-        <v>7.52727855149465</v>
+        <v>10.52606069933622</v>
       </c>
       <c r="F13">
-        <v>81.42455959863412</v>
+        <v>22.22368254244122</v>
       </c>
       <c r="G13">
-        <v>2.028366157226892</v>
+        <v>29.24055432506329</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>5.574946138163248</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.397043045360512</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>12.7048714487181</v>
       </c>
       <c r="L13">
-        <v>6.602463749426366</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.98543829784559</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.969280273489213</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>13.84723702523408</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.07213236820362</v>
+        <v>27.88964081451788</v>
       </c>
       <c r="C14">
-        <v>16.76137525404768</v>
+        <v>21.07318774235911</v>
       </c>
       <c r="D14">
-        <v>12.57360783402462</v>
+        <v>5.317444791981975</v>
       </c>
       <c r="E14">
-        <v>7.50763345747022</v>
+        <v>11.03939094815063</v>
       </c>
       <c r="F14">
-        <v>80.69198114804836</v>
+        <v>20.94228636892577</v>
       </c>
       <c r="G14">
-        <v>2.031695319550882</v>
+        <v>26.99562167610481</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.505871600716275</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.979082311517745</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>12.01224005078023</v>
       </c>
       <c r="L14">
-        <v>6.581428394119232</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.81835083457122</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.712086655753148</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>13.37573028438359</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.88690560105094</v>
+        <v>27.75865159212043</v>
       </c>
       <c r="C15">
-        <v>16.65349281773761</v>
+        <v>21.08047106118025</v>
       </c>
       <c r="D15">
-        <v>12.51929030325671</v>
+        <v>5.352404599968721</v>
       </c>
       <c r="E15">
-        <v>7.495683238441083</v>
+        <v>11.15389043545313</v>
       </c>
       <c r="F15">
-        <v>80.24288665432732</v>
+        <v>20.59063208411811</v>
       </c>
       <c r="G15">
-        <v>2.033729616570826</v>
+        <v>26.390935103949</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>6.71638850512029</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.879774373017771</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>11.87638536737377</v>
       </c>
       <c r="L15">
-        <v>6.568655450299153</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.71574937515189</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.656625059757977</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>13.22429936285506</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.81966087980937</v>
+        <v>26.86382293135982</v>
       </c>
       <c r="C16">
-        <v>16.03296361469361</v>
+        <v>20.43736045397238</v>
       </c>
       <c r="D16">
-        <v>12.20875370953407</v>
+        <v>5.265802303646183</v>
       </c>
       <c r="E16">
-        <v>7.428356386146868</v>
+        <v>10.90196590950958</v>
       </c>
       <c r="F16">
-        <v>77.66245178866178</v>
+        <v>20.29748645123405</v>
       </c>
       <c r="G16">
-        <v>2.045323521300736</v>
+        <v>25.99465899330357</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.434144185329546</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.916746847993972</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.137527835792</v>
       </c>
       <c r="L16">
-        <v>6.497114489783982</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.12353444670596</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.626011423691404</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>12.90105485914292</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.1591844061139</v>
+        <v>26.25095648613309</v>
       </c>
       <c r="C17">
-        <v>15.64977661156093</v>
+        <v>19.77179010326067</v>
       </c>
       <c r="D17">
-        <v>12.01874009014253</v>
+        <v>5.105834495299985</v>
       </c>
       <c r="E17">
-        <v>7.387966585435224</v>
+        <v>10.41028139735701</v>
       </c>
       <c r="F17">
-        <v>76.0721439988383</v>
+        <v>20.7836081992214</v>
       </c>
       <c r="G17">
-        <v>2.052390650181654</v>
+        <v>26.94249640834981</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>5.689136783536099</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.168586054565656</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.68773229214122</v>
       </c>
       <c r="L17">
-        <v>6.454644861356041</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.75610363395106</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.726729339033154</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.9114871442314</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.77696339803589</v>
+        <v>25.82509049740102</v>
       </c>
       <c r="C18">
-        <v>15.42828426985293</v>
+        <v>19.02467067930319</v>
       </c>
       <c r="D18">
-        <v>11.90957043440497</v>
+        <v>4.878250471510655</v>
       </c>
       <c r="E18">
-        <v>7.36502781363535</v>
+        <v>9.749509338656349</v>
       </c>
       <c r="F18">
-        <v>75.15434275290414</v>
+        <v>21.98288555587759</v>
       </c>
       <c r="G18">
-        <v>2.056443089556867</v>
+        <v>29.1330990597798</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.435124010772391</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.633404644040471</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>13.5884111961836</v>
       </c>
       <c r="L18">
-        <v>6.430717023159866</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.54312625978075</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.023945214875694</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>13.21121824249443</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.64713037561719</v>
+        <v>25.59028987855107</v>
       </c>
       <c r="C19">
-        <v>15.35308796668587</v>
+        <v>18.28804160749539</v>
       </c>
       <c r="D19">
-        <v>11.87262322720975</v>
+        <v>4.635390656116066</v>
       </c>
       <c r="E19">
-        <v>7.357307553968464</v>
+        <v>9.173445183400327</v>
       </c>
       <c r="F19">
-        <v>74.84302357737351</v>
+        <v>23.64574185521092</v>
       </c>
       <c r="G19">
-        <v>2.057813427735903</v>
+        <v>32.12095626487384</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.049770798899017</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.23945955131774</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.76407964214875</v>
       </c>
       <c r="L19">
-        <v>6.422699350317094</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.47072288219768</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.545065359209801</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>13.71350551931275</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.2297300450082</v>
+        <v>25.91010831085567</v>
       </c>
       <c r="C20">
-        <v>15.69067703897499</v>
+        <v>17.6430686663263</v>
       </c>
       <c r="D20">
-        <v>12.03895359248713</v>
+        <v>4.360056587941828</v>
       </c>
       <c r="E20">
-        <v>7.392234968227839</v>
+        <v>8.907247873147401</v>
       </c>
       <c r="F20">
-        <v>76.24174698289553</v>
+        <v>26.48452309054858</v>
       </c>
       <c r="G20">
-        <v>2.051639715913888</v>
+        <v>37.1069644398191</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>2.074276750344971</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>11.21090322048397</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.63139626837973</v>
       </c>
       <c r="L20">
-        <v>6.459113657907982</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.79538442061856</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.585368830395471</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>14.7423556195109</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.16086028503491</v>
+        <v>27.48965046314316</v>
       </c>
       <c r="C21">
-        <v>16.81307407831604</v>
+        <v>18.53426396409163</v>
       </c>
       <c r="D21">
-        <v>12.5996701162527</v>
+        <v>4.379833446223145</v>
       </c>
       <c r="E21">
-        <v>7.513386114761938</v>
+        <v>9.12846540857878</v>
       </c>
       <c r="F21">
-        <v>80.90723105430793</v>
+        <v>27.80491775513991</v>
       </c>
       <c r="G21">
-        <v>2.03071851593111</v>
+        <v>39.18562921352801</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>2.42717212147134</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>11.49243698276755</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.90870444260938</v>
       </c>
       <c r="L21">
-        <v>6.587583539101432</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.86748090812518</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.926226119713357</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>15.56782157713959</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.40719365204315</v>
+        <v>28.48661276972259</v>
       </c>
       <c r="C22">
-        <v>17.54077214741325</v>
+        <v>19.13811316511947</v>
       </c>
       <c r="D22">
-        <v>12.9686010804606</v>
+        <v>4.404117247846714</v>
       </c>
       <c r="E22">
-        <v>7.596158730528457</v>
+        <v>9.27232346562214</v>
       </c>
       <c r="F22">
-        <v>83.93869048239567</v>
+        <v>28.55083426715834</v>
       </c>
       <c r="G22">
-        <v>2.016837388151171</v>
+        <v>40.33292524253825</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>2.648591462097921</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>11.63982664562065</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.01485664690422</v>
       </c>
       <c r="L22">
-        <v>6.676490531112387</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.55637425284932</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.094947067641508</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>16.05262681067722</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.74316926475728</v>
+        <v>27.95843180656509</v>
       </c>
       <c r="C23">
-        <v>17.15270972475764</v>
+        <v>18.81786128838582</v>
       </c>
       <c r="D23">
-        <v>12.77139043212114</v>
+        <v>4.391215418797302</v>
       </c>
       <c r="E23">
-        <v>7.55159829177542</v>
+        <v>9.195639758016071</v>
       </c>
       <c r="F23">
-        <v>82.32179686314439</v>
+        <v>28.1525552639674</v>
       </c>
       <c r="G23">
-        <v>2.024270343150962</v>
+        <v>39.72052715909438</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>2.530677093692557</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>11.56044255114211</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.95662038446592</v>
       </c>
       <c r="L23">
-        <v>6.628559672287147</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>16.18962412890136</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.00523816468554</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>15.795446743313</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.19784421266341</v>
+        <v>25.87143020704753</v>
       </c>
       <c r="C24">
-        <v>15.67218971134979</v>
+        <v>17.56007847078623</v>
       </c>
       <c r="D24">
-        <v>12.02981485841948</v>
+        <v>4.341082344558197</v>
       </c>
       <c r="E24">
-        <v>7.390304364442649</v>
+        <v>8.902829956737436</v>
       </c>
       <c r="F24">
-        <v>76.16508051091432</v>
+        <v>26.64841708758748</v>
       </c>
       <c r="G24">
-        <v>2.051979245150883</v>
+        <v>37.40334493071008</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>2.07806562994528</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>11.27539323721388</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.7698800627166</v>
       </c>
       <c r="L24">
-        <v>6.457091798447882</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.77763101486302</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.658034485390841</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>14.78706517895894</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.36150407867125</v>
+        <v>23.43182092732041</v>
       </c>
       <c r="C25">
-        <v>14.03201564331998</v>
+        <v>16.10655459077496</v>
       </c>
       <c r="D25">
-        <v>11.23417762673776</v>
+        <v>4.28445142560924</v>
       </c>
       <c r="E25">
-        <v>7.227156268119233</v>
+        <v>8.58027760349726</v>
       </c>
       <c r="F25">
-        <v>69.40333072876065</v>
+        <v>25.03952377962363</v>
       </c>
       <c r="G25">
-        <v>2.081429862177244</v>
+        <v>34.91484967161957</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>1.575234454047035</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.99996384654037</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>16.63488913518389</v>
       </c>
       <c r="L25">
-        <v>6.291055137312462</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.31437285597655</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.267972469771039</v>
       </c>
       <c r="O25">
+        <v>13.62719287987331</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_17/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_17/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.46985843685692</v>
+        <v>21.49612022420716</v>
       </c>
       <c r="C2">
-        <v>14.95260618754802</v>
+        <v>15.52222546577127</v>
       </c>
       <c r="D2">
-        <v>4.240713082043033</v>
+        <v>4.331838913228362</v>
       </c>
       <c r="E2">
-        <v>8.335502860642139</v>
+        <v>8.243844428258106</v>
       </c>
       <c r="F2">
-        <v>23.8721121196895</v>
+        <v>22.40507537835355</v>
       </c>
       <c r="G2">
-        <v>33.10039244127373</v>
+        <v>29.95631694330014</v>
       </c>
       <c r="H2">
-        <v>1.939512075403886</v>
+        <v>1.884211542014237</v>
       </c>
       <c r="J2">
-        <v>10.82327348553329</v>
+        <v>10.7484184308944</v>
       </c>
       <c r="K2">
-        <v>16.58667771980128</v>
+        <v>15.36378832170772</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.11932901910634</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.700120106891298</v>
       </c>
       <c r="N2">
-        <v>6.96791061511778</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>12.71297885455795</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.073311236054125</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.74931813047886</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.03513122151958</v>
+        <v>20.07971218519082</v>
       </c>
       <c r="C3">
-        <v>14.11857120540236</v>
+        <v>14.56786733787111</v>
       </c>
       <c r="D3">
-        <v>4.209880915146906</v>
+        <v>4.256906726029226</v>
       </c>
       <c r="E3">
-        <v>8.164398323709108</v>
+        <v>8.094409809736538</v>
       </c>
       <c r="F3">
-        <v>23.09519304987208</v>
+        <v>21.78524578226342</v>
       </c>
       <c r="G3">
-        <v>31.88740205971892</v>
+        <v>29.0350486920227</v>
       </c>
       <c r="H3">
-        <v>2.216400818702585</v>
+        <v>2.130055925256563</v>
       </c>
       <c r="J3">
-        <v>10.71900816711516</v>
+        <v>10.65592337998711</v>
       </c>
       <c r="K3">
-        <v>16.58290527771156</v>
+        <v>15.46656906866632</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.27001719653203</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.695060488224714</v>
       </c>
       <c r="N3">
-        <v>6.756920361740415</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>12.05738574302126</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.877446662829143</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>12.08453633518856</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.10182140421322</v>
+        <v>19.15785749471103</v>
       </c>
       <c r="C4">
-        <v>13.58107734845884</v>
+        <v>13.95152977639527</v>
       </c>
       <c r="D4">
-        <v>4.190392054878251</v>
+        <v>4.210105007545888</v>
       </c>
       <c r="E4">
-        <v>8.05656159264014</v>
+        <v>8.0003375574055</v>
       </c>
       <c r="F4">
-        <v>22.62652404353326</v>
+        <v>21.41230816263516</v>
       </c>
       <c r="G4">
-        <v>31.15304498639707</v>
+        <v>28.48619824792843</v>
       </c>
       <c r="H4">
-        <v>2.391525676325466</v>
+        <v>2.285684902745293</v>
       </c>
       <c r="J4">
-        <v>10.6623285330986</v>
+        <v>10.60218885421249</v>
       </c>
       <c r="K4">
-        <v>16.59383722936484</v>
+        <v>15.5395035656109</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.36534494119638</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.721419543039318</v>
       </c>
       <c r="N4">
-        <v>6.623774618697212</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>11.637814156916</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.754246789386772</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.65831717577844</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.70824171112416</v>
+        <v>18.76902008575519</v>
       </c>
       <c r="C5">
-        <v>13.35572094521904</v>
+        <v>13.69280629784972</v>
       </c>
       <c r="D5">
-        <v>4.182314567495171</v>
+        <v>4.190849767493613</v>
       </c>
       <c r="E5">
-        <v>8.011890711947725</v>
+        <v>7.961399598287213</v>
       </c>
       <c r="F5">
-        <v>22.43785465136359</v>
+        <v>21.26236633741582</v>
       </c>
       <c r="G5">
-        <v>30.856769600506</v>
+        <v>28.26690403933977</v>
       </c>
       <c r="H5">
-        <v>2.464209480258857</v>
+        <v>2.350307429848439</v>
       </c>
       <c r="J5">
-        <v>10.64103005459787</v>
+        <v>10.58104360027708</v>
       </c>
       <c r="K5">
-        <v>16.60147443099827</v>
+        <v>15.57157227017253</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.40490349717208</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.739331567256372</v>
       </c>
       <c r="N5">
-        <v>6.568642407924492</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>11.46269123593971</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.703338152401901</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.48023115638137</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.64208574363875</v>
+        <v>18.70365675016894</v>
       </c>
       <c r="C6">
-        <v>13.31792104405114</v>
+        <v>13.64939148106519</v>
       </c>
       <c r="D6">
-        <v>4.180965254254996</v>
+        <v>4.187641876086241</v>
       </c>
       <c r="E6">
-        <v>8.004428476248755</v>
+        <v>7.954897024334788</v>
       </c>
       <c r="F6">
-        <v>22.40667253865121</v>
+        <v>21.23759465034271</v>
       </c>
       <c r="G6">
-        <v>30.80776417706846</v>
+        <v>28.23075798594512</v>
       </c>
       <c r="H6">
-        <v>2.476359171824392</v>
+        <v>2.361111308879518</v>
       </c>
       <c r="J6">
-        <v>10.63760067778951</v>
+        <v>10.57757735600689</v>
       </c>
       <c r="K6">
-        <v>16.60293044824947</v>
+        <v>15.57703551959078</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.41151534712581</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.742731111337388</v>
       </c>
       <c r="N6">
-        <v>6.559435902403482</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>11.43336655803288</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.694843401638499</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.45039906776044</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.09656719285235</v>
+        <v>19.15237901214663</v>
       </c>
       <c r="C7">
-        <v>13.57806361723071</v>
+        <v>13.93861834852679</v>
       </c>
       <c r="D7">
-        <v>4.190283661942414</v>
+        <v>4.212990373122435</v>
       </c>
       <c r="E7">
-        <v>8.055962123151378</v>
+        <v>7.998593654315977</v>
       </c>
       <c r="F7">
-        <v>22.62396991364988</v>
+        <v>21.37999260246072</v>
       </c>
       <c r="G7">
-        <v>31.14903675480264</v>
+        <v>28.5515127410407</v>
       </c>
       <c r="H7">
-        <v>2.39250053232469</v>
+        <v>2.287313226608082</v>
       </c>
       <c r="J7">
-        <v>10.66203407474346</v>
+        <v>10.54776426081589</v>
       </c>
       <c r="K7">
-        <v>16.59392753839954</v>
+        <v>15.52496025780698</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.35321664558251</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.711599521173881</v>
       </c>
       <c r="N7">
-        <v>6.623034583462604</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>11.63546896193849</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.752705789110866</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.65565508298942</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.98598928330772</v>
+        <v>21.01763886210644</v>
       </c>
       <c r="C8">
-        <v>14.67033144396847</v>
+        <v>15.17022349072971</v>
       </c>
       <c r="D8">
-        <v>4.230200659018359</v>
+        <v>4.316937488389663</v>
       </c>
       <c r="E8">
-        <v>8.277065157878024</v>
+        <v>8.188952512048228</v>
       </c>
       <c r="F8">
-        <v>23.60262111607163</v>
+        <v>22.09312838558971</v>
       </c>
       <c r="G8">
-        <v>32.68019966012326</v>
+        <v>29.85436438570805</v>
       </c>
       <c r="H8">
-        <v>2.033942301058713</v>
+        <v>1.970382046848461</v>
       </c>
       <c r="J8">
-        <v>10.78577239392878</v>
+        <v>10.53967612204612</v>
       </c>
       <c r="K8">
-        <v>16.58253743032176</v>
+        <v>15.34803519083305</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.13175127784214</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.65597577427506</v>
       </c>
       <c r="N8">
-        <v>6.895924618397982</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>12.49054093816698</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.003719222558511</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.52298088285196</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.27910921613829</v>
+        <v>24.26514638752184</v>
       </c>
       <c r="C9">
-        <v>16.60917713227339</v>
+        <v>17.37735178953546</v>
       </c>
       <c r="D9">
-        <v>4.303855434997422</v>
+        <v>4.502162613891263</v>
       </c>
       <c r="E9">
-        <v>8.689965421949996</v>
+        <v>8.549229675723863</v>
       </c>
       <c r="F9">
-        <v>25.57922908900302</v>
+        <v>23.65966489455976</v>
       </c>
       <c r="G9">
-        <v>35.75098705132633</v>
+        <v>32.28166504269695</v>
       </c>
       <c r="H9">
-        <v>1.74671953220873</v>
+        <v>1.734792821021411</v>
       </c>
       <c r="J9">
-        <v>11.08858638812046</v>
+        <v>10.74512419002306</v>
       </c>
       <c r="K9">
-        <v>16.67200945322967</v>
+        <v>15.13928739598038</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.76557526252817</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>9.825853026298075</v>
       </c>
       <c r="N9">
-        <v>7.401405405012872</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.02740757936837</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.474416465317368</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>14.07696463286808</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.46752763472372</v>
+        <v>26.41895779467616</v>
       </c>
       <c r="C10">
-        <v>17.99371819586088</v>
+        <v>18.87563337607416</v>
       </c>
       <c r="D10">
-        <v>4.378633591506613</v>
+        <v>4.678070041175673</v>
       </c>
       <c r="E10">
-        <v>8.9844234225757</v>
+        <v>8.813087024867091</v>
       </c>
       <c r="F10">
-        <v>26.82455276320866</v>
+        <v>24.49683351120833</v>
       </c>
       <c r="G10">
-        <v>37.62028631825699</v>
+        <v>34.1286463890958</v>
       </c>
       <c r="H10">
-        <v>2.191644027680894</v>
+        <v>2.124817510308351</v>
       </c>
       <c r="J10">
-        <v>11.26355964797897</v>
+        <v>10.55376483848363</v>
       </c>
       <c r="K10">
-        <v>16.63525411789568</v>
+        <v>14.82445878907028</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.35904094646263</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>9.918759666133207</v>
       </c>
       <c r="N10">
-        <v>7.655665276510246</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.99366468051165</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.700084983308273</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>15.04842125705335</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.54165129079734</v>
+        <v>27.48305475916617</v>
       </c>
       <c r="C11">
-        <v>19.3340963676842</v>
+        <v>20.04588965670217</v>
       </c>
       <c r="D11">
-        <v>4.65006670566776</v>
+        <v>5.037052752272572</v>
       </c>
       <c r="E11">
-        <v>9.353876524159062</v>
+        <v>9.246922408789354</v>
       </c>
       <c r="F11">
-        <v>25.40239038322292</v>
+        <v>22.972684827025</v>
       </c>
       <c r="G11">
-        <v>34.93603978813805</v>
+        <v>32.59714332572405</v>
       </c>
       <c r="H11">
-        <v>3.058501917353809</v>
+        <v>2.99505592138431</v>
       </c>
       <c r="J11">
-        <v>10.60278852898784</v>
+        <v>9.440723553849333</v>
       </c>
       <c r="K11">
-        <v>15.09890423486786</v>
+        <v>13.40181597250915</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.33492238131668</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>8.866511710802637</v>
       </c>
       <c r="N11">
-        <v>6.976353630832556</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.7855920226687</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.98637585665246</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>14.83170339722211</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.00807586401104</v>
+        <v>27.94861462273564</v>
       </c>
       <c r="C12">
-        <v>20.20389751262001</v>
+        <v>20.76621516747835</v>
       </c>
       <c r="D12">
-        <v>4.902227192880233</v>
+        <v>5.31885490076938</v>
       </c>
       <c r="E12">
-        <v>9.883337113855722</v>
+        <v>9.813891476450696</v>
       </c>
       <c r="F12">
-        <v>23.90789922505821</v>
+        <v>21.57381043954221</v>
       </c>
       <c r="G12">
-        <v>32.22386491469063</v>
+        <v>30.6605294391321</v>
       </c>
       <c r="H12">
-        <v>4.282185858671377</v>
+        <v>4.234866600836298</v>
       </c>
       <c r="J12">
-        <v>9.99880272721329</v>
+        <v>8.751067417487024</v>
       </c>
       <c r="K12">
-        <v>13.82936636984339</v>
+        <v>12.36205113957</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.65584079164933</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>7.994572966828476</v>
       </c>
       <c r="N12">
-        <v>6.430429573360915</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.40109757172127</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.419239039560039</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>14.44028051231455</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.05045670756203</v>
+        <v>27.99754335992758</v>
       </c>
       <c r="C13">
-        <v>20.78642222449248</v>
+        <v>21.22400129625299</v>
       </c>
       <c r="D13">
-        <v>5.147435252460861</v>
+        <v>5.537340002525716</v>
       </c>
       <c r="E13">
-        <v>10.52606069933622</v>
+        <v>10.48471362470466</v>
       </c>
       <c r="F13">
-        <v>22.22368254244122</v>
+        <v>20.21355077278147</v>
       </c>
       <c r="G13">
-        <v>29.24055432506329</v>
+        <v>28.06938390657323</v>
       </c>
       <c r="H13">
-        <v>5.574946138163248</v>
+        <v>5.54270566660895</v>
       </c>
       <c r="J13">
-        <v>9.397043045360512</v>
+        <v>8.410873964561386</v>
       </c>
       <c r="K13">
-        <v>12.7048714487181</v>
+        <v>11.58790130166647</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.19375542895701</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.249231578520256</v>
       </c>
       <c r="N13">
-        <v>5.969280273489213</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>13.84723702523408</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.948451263172855</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>13.88072569889859</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.88964081451788</v>
+        <v>27.84447756715245</v>
       </c>
       <c r="C14">
-        <v>21.07318774235911</v>
+        <v>21.43253003129003</v>
       </c>
       <c r="D14">
-        <v>5.317444791981975</v>
+        <v>5.661361818308738</v>
       </c>
       <c r="E14">
-        <v>11.03939094815063</v>
+        <v>11.01331574620819</v>
       </c>
       <c r="F14">
-        <v>20.94228636892577</v>
+        <v>19.26228103239583</v>
       </c>
       <c r="G14">
-        <v>26.99562167610481</v>
+        <v>25.93380225076372</v>
       </c>
       <c r="H14">
-        <v>6.505871600716275</v>
+        <v>6.482572782616993</v>
       </c>
       <c r="J14">
-        <v>8.979082311517745</v>
+        <v>8.30722566549769</v>
       </c>
       <c r="K14">
-        <v>12.01224005078023</v>
+        <v>11.17619487292488</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.962449661355176</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.802300214175923</v>
       </c>
       <c r="N14">
-        <v>5.712086655753148</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>13.37573028438359</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.690398930563261</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>13.40545097848215</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75865159212043</v>
+        <v>27.71698813485713</v>
       </c>
       <c r="C15">
-        <v>21.08047106118025</v>
+        <v>21.42559400354056</v>
       </c>
       <c r="D15">
-        <v>5.352404599968721</v>
+        <v>5.67492324853167</v>
       </c>
       <c r="E15">
-        <v>11.15389043545313</v>
+        <v>11.13334438830776</v>
       </c>
       <c r="F15">
-        <v>20.59063208411811</v>
+        <v>19.03453218478547</v>
       </c>
       <c r="G15">
-        <v>26.390935103949</v>
+        <v>25.28462533722729</v>
       </c>
       <c r="H15">
-        <v>6.71638850512029</v>
+        <v>6.69581883133346</v>
       </c>
       <c r="J15">
-        <v>8.879774373017771</v>
+        <v>8.337757629457156</v>
       </c>
       <c r="K15">
-        <v>11.87638536737377</v>
+        <v>11.12171972006445</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.935467163039112</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.722602567894433</v>
       </c>
       <c r="N15">
-        <v>5.656625059757977</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>13.22429936285506</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.637146006333816</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>13.25317095643576</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.86382293135982</v>
+        <v>26.83760301913066</v>
       </c>
       <c r="C16">
-        <v>20.43736045397238</v>
+        <v>20.82437849649969</v>
       </c>
       <c r="D16">
-        <v>5.265802303646183</v>
+        <v>5.508405419553529</v>
       </c>
       <c r="E16">
-        <v>10.90196590950958</v>
+        <v>10.90679652420374</v>
       </c>
       <c r="F16">
-        <v>20.29748645123405</v>
+        <v>19.09666268999555</v>
       </c>
       <c r="G16">
-        <v>25.99465899330357</v>
+        <v>24.30134298913923</v>
       </c>
       <c r="H16">
-        <v>6.434144185329546</v>
+        <v>6.442604374379392</v>
       </c>
       <c r="J16">
-        <v>8.916746847993972</v>
+        <v>8.833681533082677</v>
       </c>
       <c r="K16">
-        <v>12.137527835792</v>
+        <v>11.50323937527588</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.18746628122459</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.960543942438894</v>
       </c>
       <c r="N16">
-        <v>5.626011423691404</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>12.90105485914292</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.627517839540573</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.93038192816606</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.25095648613309</v>
+        <v>26.23216603051505</v>
       </c>
       <c r="C17">
-        <v>19.77179010326067</v>
+        <v>20.22244358443149</v>
       </c>
       <c r="D17">
-        <v>5.105834495299985</v>
+        <v>5.32183781850402</v>
       </c>
       <c r="E17">
-        <v>10.41028139735701</v>
+        <v>10.42357971654779</v>
       </c>
       <c r="F17">
-        <v>20.7836081992214</v>
+        <v>19.63550826162003</v>
       </c>
       <c r="G17">
-        <v>26.94249640834981</v>
+        <v>24.83138668986492</v>
       </c>
       <c r="H17">
-        <v>5.689136783536099</v>
+        <v>5.695961660834141</v>
       </c>
       <c r="J17">
-        <v>9.168586054565656</v>
+        <v>9.233161585716044</v>
       </c>
       <c r="K17">
-        <v>12.68773229214122</v>
+        <v>12.00217513967854</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.51789943579329</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.352156328923633</v>
       </c>
       <c r="N17">
-        <v>5.726729339033154</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>12.9114871442314</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.744037358534883</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.94298911242198</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82509049740102</v>
+        <v>25.8079023298653</v>
       </c>
       <c r="C18">
-        <v>19.02467067930319</v>
+        <v>19.57880616542564</v>
       </c>
       <c r="D18">
-        <v>4.878250471510655</v>
+        <v>5.095769207709894</v>
       </c>
       <c r="E18">
-        <v>9.749509338656349</v>
+        <v>9.752181644460851</v>
       </c>
       <c r="F18">
-        <v>21.98288555587759</v>
+        <v>20.6912591669997</v>
       </c>
       <c r="G18">
-        <v>29.1330990597798</v>
+        <v>26.56896914390822</v>
       </c>
       <c r="H18">
-        <v>4.435124010772391</v>
+        <v>4.426405619345283</v>
       </c>
       <c r="J18">
-        <v>9.633404644040471</v>
+        <v>9.683080848747473</v>
       </c>
       <c r="K18">
-        <v>13.5884111961836</v>
+        <v>12.71974440951633</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.00286727594113</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.952429334613146</v>
       </c>
       <c r="N18">
-        <v>6.023945214875694</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>13.21121824249443</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>6.055795495871868</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>13.24764580624126</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.59028987855107</v>
+        <v>25.56960666013212</v>
       </c>
       <c r="C19">
-        <v>18.28804160749539</v>
+        <v>18.97143914072881</v>
       </c>
       <c r="D19">
-        <v>4.635390656116066</v>
+        <v>4.864482325828921</v>
       </c>
       <c r="E19">
-        <v>9.173445183400327</v>
+        <v>9.135049224491162</v>
       </c>
       <c r="F19">
-        <v>23.64574185521092</v>
+        <v>22.09005933821248</v>
       </c>
       <c r="G19">
-        <v>32.12095626487384</v>
+        <v>29.05484211177202</v>
       </c>
       <c r="H19">
-        <v>3.049770798899017</v>
+        <v>3.034924445839792</v>
       </c>
       <c r="J19">
-        <v>10.23945955131774</v>
+        <v>10.18118213709182</v>
       </c>
       <c r="K19">
-        <v>14.76407964214875</v>
+        <v>13.61833930427568</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.61795809884993</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.716523335742062</v>
       </c>
       <c r="N19">
-        <v>6.545065359209801</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>13.71350551931275</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.59010847296424</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.756917450262</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.91010831085567</v>
+        <v>25.87162396622115</v>
       </c>
       <c r="C20">
-        <v>17.6430686663263</v>
+        <v>18.5224949652861</v>
       </c>
       <c r="D20">
-        <v>4.360056587941828</v>
+        <v>4.620852043578376</v>
       </c>
       <c r="E20">
-        <v>8.907247873147401</v>
+        <v>8.748173468675772</v>
       </c>
       <c r="F20">
-        <v>26.48452309054858</v>
+        <v>24.35830806014776</v>
       </c>
       <c r="G20">
-        <v>37.1069644398191</v>
+        <v>33.4106267921314</v>
       </c>
       <c r="H20">
-        <v>2.074276750344971</v>
+        <v>2.023884196566339</v>
       </c>
       <c r="J20">
-        <v>11.21090322048397</v>
+        <v>10.77919303092958</v>
       </c>
       <c r="K20">
-        <v>16.63139626837973</v>
+        <v>14.94812964940141</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.49478411198154</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>9.923016950316308</v>
       </c>
       <c r="N20">
-        <v>7.585368830395471</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.7423556195109</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.639607877651343</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>14.79702676596414</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.48965046314316</v>
+        <v>27.41824434957323</v>
       </c>
       <c r="C21">
-        <v>18.53426396409163</v>
+        <v>19.38316264623324</v>
       </c>
       <c r="D21">
-        <v>4.379833446223145</v>
+        <v>4.780919401736554</v>
       </c>
       <c r="E21">
-        <v>9.12846540857878</v>
+        <v>8.90932600663532</v>
       </c>
       <c r="F21">
-        <v>27.80491775513991</v>
+        <v>24.82731005447251</v>
       </c>
       <c r="G21">
-        <v>39.18562921352801</v>
+        <v>36.47476552439836</v>
       </c>
       <c r="H21">
-        <v>2.42717212147134</v>
+        <v>2.322288362118145</v>
       </c>
       <c r="J21">
-        <v>11.49243698276755</v>
+        <v>9.824342264084951</v>
       </c>
       <c r="K21">
-        <v>16.90870444260938</v>
+        <v>14.66753017885627</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.15265809993473</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>9.98866581088436</v>
       </c>
       <c r="N21">
-        <v>7.926226119713357</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>15.56782157713959</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.948979758356724</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>15.62086358849708</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.48661276972259</v>
+        <v>28.39380722828612</v>
       </c>
       <c r="C22">
-        <v>19.13811316511947</v>
+        <v>19.95039890600108</v>
       </c>
       <c r="D22">
-        <v>4.404117247846714</v>
+        <v>4.904671353263057</v>
       </c>
       <c r="E22">
-        <v>9.27232346562214</v>
+        <v>9.021204847062423</v>
       </c>
       <c r="F22">
-        <v>28.55083426715834</v>
+        <v>25.01470367405268</v>
       </c>
       <c r="G22">
-        <v>40.33292524253825</v>
+        <v>38.3632506283249</v>
       </c>
       <c r="H22">
-        <v>2.648591462097921</v>
+        <v>2.509103240749754</v>
       </c>
       <c r="J22">
-        <v>11.63982664562065</v>
+        <v>9.140327552910653</v>
       </c>
       <c r="K22">
-        <v>17.01485664690422</v>
+        <v>14.40481195042114</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.87702545652206</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>9.977895306457098</v>
       </c>
       <c r="N22">
-        <v>8.094947067641508</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.05262681067722</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.096330933343566</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.10271167627729</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.95843180656509</v>
+        <v>27.87759991156186</v>
       </c>
       <c r="C23">
-        <v>18.81786128838582</v>
+        <v>19.66817849529864</v>
       </c>
       <c r="D23">
-        <v>4.391215418797302</v>
+        <v>4.829080702240489</v>
       </c>
       <c r="E23">
-        <v>9.195639758016071</v>
+        <v>8.963578533391926</v>
       </c>
       <c r="F23">
-        <v>28.1525552639674</v>
+        <v>24.98024461350719</v>
       </c>
       <c r="G23">
-        <v>39.72052715909438</v>
+        <v>37.20443863240324</v>
       </c>
       <c r="H23">
-        <v>2.530677093692557</v>
+        <v>2.410898478056163</v>
       </c>
       <c r="J23">
-        <v>11.56044255114211</v>
+        <v>9.622577220173218</v>
       </c>
       <c r="K23">
-        <v>16.95662038446592</v>
+        <v>14.58199287918576</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.04802844244416</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.01422405109563</v>
       </c>
       <c r="N23">
-        <v>8.00523816468554</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>15.795446743313</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.019678435038745</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>15.84797251208029</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.87143020704753</v>
+        <v>25.83265361392003</v>
       </c>
       <c r="C24">
-        <v>17.56007847078623</v>
+        <v>18.45143341630452</v>
       </c>
       <c r="D24">
-        <v>4.341082344558197</v>
+        <v>4.599171104741406</v>
       </c>
       <c r="E24">
-        <v>8.902829956737436</v>
+        <v>8.734509174778825</v>
       </c>
       <c r="F24">
-        <v>26.64841708758748</v>
+        <v>24.50017989020025</v>
       </c>
       <c r="G24">
-        <v>37.40334493071008</v>
+        <v>33.64820733517864</v>
       </c>
       <c r="H24">
-        <v>2.07806562994528</v>
+        <v>2.027341068512301</v>
       </c>
       <c r="J24">
-        <v>11.27539323721388</v>
+        <v>10.83992079796689</v>
       </c>
       <c r="K24">
-        <v>16.7698800627166</v>
+        <v>15.05934211504645</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.57404981857455</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.01160983190788</v>
       </c>
       <c r="N24">
-        <v>7.658034485390841</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.78706517895894</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.713932073233377</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>14.84242857050875</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.43182092732041</v>
+        <v>23.43060318883948</v>
       </c>
       <c r="C25">
-        <v>16.10655459077496</v>
+        <v>16.81794151586796</v>
       </c>
       <c r="D25">
-        <v>4.28445142560924</v>
+        <v>4.448181432283413</v>
       </c>
       <c r="E25">
-        <v>8.58027760349726</v>
+        <v>8.455027909174703</v>
       </c>
       <c r="F25">
-        <v>25.03952377962363</v>
+        <v>23.26965800441638</v>
       </c>
       <c r="G25">
-        <v>34.91484967161957</v>
+        <v>31.52355940207486</v>
       </c>
       <c r="H25">
-        <v>1.575234454047035</v>
+        <v>1.583954471080473</v>
       </c>
       <c r="J25">
-        <v>10.99996384654037</v>
+        <v>10.76044527398148</v>
       </c>
       <c r="K25">
-        <v>16.63488913518389</v>
+        <v>15.20671805337783</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.8776378660878</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.769596507087936</v>
       </c>
       <c r="N25">
-        <v>7.267972469771039</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>13.62719287987331</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.350971417589783</v>
       </c>
       <c r="Q25">
+        <v>13.67337151591518</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
